--- a/ERD/er diagram.xlsx
+++ b/ERD/er diagram.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="user details" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="36">
   <si>
     <t>FNAME</t>
   </si>
@@ -94,6 +94,45 @@
   </si>
   <si>
     <t>PRODUCT CATEGORY</t>
+  </si>
+  <si>
+    <t>CREATEDDATE</t>
+  </si>
+  <si>
+    <t>CATEGORY_ID</t>
+  </si>
+  <si>
+    <t>CATEGORY_NAME</t>
+  </si>
+  <si>
+    <t>MODIFIED_DATE</t>
+  </si>
+  <si>
+    <t>AUTODATE</t>
+  </si>
+  <si>
+    <t>PRODUCT SUB CATEGORY</t>
+  </si>
+  <si>
+    <t>SUBCATEGORY_ID</t>
+  </si>
+  <si>
+    <t>SUBCATEGORY_NAME</t>
+  </si>
+  <si>
+    <t>BLOB</t>
+  </si>
+  <si>
+    <t>CATEHGORY_IMG</t>
+  </si>
+  <si>
+    <t>CATEGORY_DESC</t>
+  </si>
+  <si>
+    <t>SUBCATEGORY_DESC</t>
+  </si>
+  <si>
+    <t>SUBCATEHGORY_IMG</t>
   </si>
 </sst>
 </file>
@@ -193,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -204,6 +243,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -213,7 +253,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -323,6 +363,59 @@
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Elbow Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4362450" y="466725"/>
+          <a:ext cx="1714500" cy="1381125"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -599,7 +692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -616,11 +709,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -643,16 +736,16 @@
       <c r="D4" s="2"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="G7" s="4" t="s">
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="G7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
@@ -780,25 +873,166 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:E2"/>
+  <dimension ref="C2:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C2" s="7" t="s">
+    <row r="2" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="H8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="H9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="H10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="H11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="H12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="H13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="H14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="H15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C2:E2"/>
+    <mergeCell ref="H8:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>